--- a/data/gwl_lists/GWLs_CMIP5vCMIP6_selection.xlsx
+++ b/data/gwl_lists/GWLs_CMIP5vCMIP6_selection.xlsx
@@ -8,59 +8,139 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbecsi/Desktop/Arbeit/Qgis/data/AAR2/GWLs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E6BFF4-BE0F-764B-9875-B7951D34E5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A67BFB-BBB6-1B4F-8E88-1AB5C799DCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22120" xr2:uid="{3205E47B-5EE3-6F45-A00E-09C2AA1423A5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22120" activeTab="7" xr2:uid="{3205E47B-5EE3-6F45-A00E-09C2AA1423A5}"/>
   </bookViews>
   <sheets>
     <sheet name="CMIP6_sel" sheetId="4" r:id="rId1"/>
     <sheet name="CMIP5_sel" sheetId="5" r:id="rId2"/>
     <sheet name="CMIP6_sel_timing" sheetId="6" r:id="rId3"/>
-    <sheet name="gwl_date" sheetId="9" r:id="rId4"/>
-    <sheet name="gwl_rcps" sheetId="10" r:id="rId5"/>
-    <sheet name="gwl_ssps" sheetId="11" r:id="rId6"/>
-    <sheet name="gwl_ccs_AUT" sheetId="12" r:id="rId7"/>
+    <sheet name="clean_data_table" sheetId="13" r:id="rId4"/>
+    <sheet name="gwl_date" sheetId="9" r:id="rId5"/>
+    <sheet name="gwl_rcps" sheetId="10" r:id="rId6"/>
+    <sheet name="gwl_ssps" sheetId="11" r:id="rId7"/>
+    <sheet name="gwl_ccs_AUT" sheetId="12" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">[1]Tabelle2!$C$3:$C$33</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">[1]Tabelle2!$D$3:$D$33</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">CMIP6_sel_timing!$D$3:$D$28</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">CMIP6_sel_timing!$E$3:$E$28</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">[2]Tabelle2!$F$33:$F$42</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">CMIP5_sel!$C$11:$C$17</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">CMIP5_sel!$C$18:$C$25</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">CMIP5_sel!$C$3:$C$10</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">CMIP5_sel!$D$11:$D$17</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">CMIP5_sel!$D$18:$D$25</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">CMIP5_sel!$D$3:$D$10</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">CMIP6_sel!$C$13:$C$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">[1]Tabelle2!$E$3:$E$33</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">CMIP6_sel!$C$23:$C$30</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">CMIP6_sel!$C$31:$C$40</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">CMIP6_sel!$C$5:$C$12</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">CMIP6_sel!$D$13:$D$22</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">CMIP6_sel!$D$23:$D$30</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">CMIP6_sel!$D$31:$D$40</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">CMIP6_sel!$D$5:$D$12</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">CMIP5_sel!$K$3:$K$25</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">CMIP5_sel!$L$3:$L$25</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">CMIP5_sel!$M$3:$M$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">[1]Tabelle2!$F$3:$F$33</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">CMIP5_sel!$N$3:$N$25</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">CMIP6_sel!$K$3:$K$40</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">CMIP6_sel!$L$3:$L$40</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">CMIP6_sel!$M$3:$M$40</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">CMIP6_sel!$N$3:$N$40</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">CMIP5_sel!$C$3:$C$25</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">CMIP5_sel!$D$3:$D$25</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">CMIP5_sel!$E$3:$E$25</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">CMIP5_sel!$F$3:$F$25</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">CMIP6_sel_timing!$B$3:$B$28</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">CMIP6_sel_timing!$C$3:$C$28</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">CMIP5_sel!$C$3:$C$25</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">CMIP5_sel!$D$3:$D$25</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">[1]Tabelle2!$E$3:$E$33</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">CMIP5_sel!$M$3:$M$25</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">CMIP5_sel!$N$3:$N$25</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">CMIP6_sel!$K$3:$K$40</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">CMIP6_sel!$L$3:$L$40</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">CMIP6_sel!$M$3:$M$40</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">CMIP6_sel!$N$3:$N$40</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">clean_data_table!$AA$4:$AA$8</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">clean_data_table!$AS$4:$AS$39</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">clean_data_table!$AT$4:$AT$38</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">clean_data_table!$AU$4:$AU$25</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">[1]Tabelle2!$F$3:$F$33</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">clean_data_table!$AV$4:$AV$17</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">clean_data_table!$X$4:$X$25</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">clean_data_table!$Y$4:$Y$22</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">clean_data_table!$Z$4:$Z$13</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">CMIP5_sel!$C$3:$C$25</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">CMIP5_sel!$D$3:$D$25</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">CMIP5_sel!$E$3:$E$25</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">CMIP5_sel!$F$3:$F$25</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">CMIP6_sel_timing!$B$3:$B$28</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">CMIP6_sel_timing!$C$3:$C$28</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">CMIP6_sel_timing!$D$3:$D$28</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">CMIP6_sel_timing!$E$3:$E$28</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">CMIP5_sel!$E$3:$E$25</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">[1]Tabelle2!$C$3:$C$33</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">[1]Tabelle2!$D$3:$D$33</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">[1]Tabelle2!$E$3:$E$33</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">[1]Tabelle2!$F$3:$F$33</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">clean_data_table!$AF$4:$AF$27</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">clean_data_table!$AG$4:$AG$24</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">clean_data_table!$AH$4:$AH$16</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">clean_data_table!$AI$4:$AI$10</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">clean_data_table!$B$4:$B$20</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">clean_data_table!$C$4:$C$19</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">CMIP5_sel!$F$3:$F$25</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">clean_data_table!$D$8:$D$19</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">clean_data_table!$E$11:$E$18</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">clean_data_table!$F$4:$F$8</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">clean_data_table!$T$4:$T$25</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">clean_data_table!$U$4:$U$22</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">clean_data_table!$V$4:$V$13</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">clean_data_table!$W$4:$W$9</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">[2]Tabelle2!$F$33:$F$42</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">CMIP5_sel!$C$11:$C$17</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">CMIP5_sel!$C$18:$C$25</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">CMIP6_sel_timing!$B$3:$B$28</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">CMIP5_sel!$C$3:$C$10</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">CMIP5_sel!$D$11:$D$17</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">CMIP5_sel!$D$18:$D$25</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">CMIP5_sel!$D$3:$D$10</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">clean_data_table!$T$35:$T$41</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">clean_data_table!$T$42:$T$48</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">clean_data_table!$T$49:$T$56</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">clean_data_table!$U$36:$U$39</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">clean_data_table!$U$42:$U$48</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">clean_data_table!$U$49:$U$56</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">CMIP6_sel_timing!$C$3:$C$28</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">CMIP6_sel!$C$13:$C$22</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">CMIP6_sel!$C$23:$C$30</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">CMIP6_sel!$C$31:$C$40</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">CMIP6_sel!$C$5:$C$12</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">CMIP6_sel!$D$13:$D$22</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">CMIP6_sel!$D$23:$D$30</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">CMIP6_sel!$D$31:$D$40</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">CMIP6_sel!$D$5:$D$12</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">clean_data_table!$AO$50:$AO$55</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">clean_data_table!$AO$58:$AO$67</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">CMIP6_sel_timing!$D$3:$D$28</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">clean_data_table!$AO$68:$AO$75</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">clean_data_table!$AO$76:$AO$85</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">clean_data_table!$AP$51:$AP$55</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">clean_data_table!$AP$58:$AP$67</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">clean_data_table!$AP$68:$AP$75</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">clean_data_table!$AP$76:$AP$85</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">CMIP6_sel!$C$13:$C$22</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">CMIP6_sel!$C$23:$C$30</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">CMIP6_sel!$C$31:$C$40</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">CMIP6_sel!$C$5:$C$12</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">CMIP6_sel_timing!$E$3:$E$28</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">CMIP6_sel!$D$13:$D$22</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">CMIP6_sel!$D$23:$D$30</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">CMIP6_sel!$D$31:$D$40</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">CMIP6_sel!$D$5:$D$12</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">clean_data_table!$AO$50:$AO$55</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">clean_data_table!$AO$58:$AO$67</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">clean_data_table!$AO$68:$AO$75</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">clean_data_table!$AO$76:$AO$85</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">clean_data_table!$AP$51:$AP$55</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">clean_data_table!$AP$58:$AP$67</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">[1]Tabelle2!$C$3:$C$33</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">clean_data_table!$AP$68:$AP$75</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">clean_data_table!$AP$76:$AP$85</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">CMIP5_sel!$K$3:$K$25</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">CMIP5_sel!$L$3:$L$25</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">CMIP5_sel!$M$3:$M$25</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">CMIP5_sel!$N$3:$N$25</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">CMIP6_sel!$K$3:$K$40</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">CMIP6_sel!$L$3:$L$40</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">CMIP6_sel!$M$3:$M$40</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">CMIP6_sel!$N$3:$N$40</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">[1]Tabelle2!$D$3:$D$33</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">clean_data_table!$AA$4:$AA$8</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">clean_data_table!$AS$4:$AS$39</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">clean_data_table!$AT$4:$AT$38</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">clean_data_table!$AU$4:$AU$25</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">clean_data_table!$AV$4:$AV$17</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">clean_data_table!$X$4:$X$25</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">clean_data_table!$Y$4:$Y$22</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">clean_data_table!$Z$4:$Z$13</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">CMIP5_sel!$K$3:$K$25</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">CMIP5_sel!$L$3:$L$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="195">
   <si>
     <t>Model</t>
   </si>
@@ -563,6 +643,111 @@
   </si>
   <si>
     <t>percentiles (scaled)</t>
+  </si>
+  <si>
+    <t>Linked models</t>
+  </si>
+  <si>
+    <t>AUT OEKS15 CCS 1991-2020</t>
+  </si>
+  <si>
+    <t>OEKS15 ensemble member</t>
+  </si>
+  <si>
+    <t>EC-EARTH_rcp26_r12i1p1</t>
+  </si>
+  <si>
+    <t>SDM_ICHEC-EC-EARTH_rcp26_r12i1p1_CLMcom-CCLM4-8-17_all</t>
+  </si>
+  <si>
+    <t>HadGEM2-ES_rcp26_r1i1p1</t>
+  </si>
+  <si>
+    <t>SDM_MOHC-HadGEM2-ES_rcp26_r1i1p1_SMHI-RCA4_all</t>
+  </si>
+  <si>
+    <t>MPI-ESM-LR_rcp26_r1i1p1</t>
+  </si>
+  <si>
+    <t>SDM_MPI-M-MPI-ESM-LR_rcp26_r1i1p1_MPI-CSC-REMO2009_all</t>
+  </si>
+  <si>
+    <t>MPI-ESM-LR_rcp26_r2i1p1</t>
+  </si>
+  <si>
+    <t>SDM_MPI-M-MPI-ESM-LR_rcp26_r2i1p1_MPI-CSC-REMO2009_all</t>
+  </si>
+  <si>
+    <t>CNRM-CM5_rcp45_r1i1p1</t>
+  </si>
+  <si>
+    <t>SDM_CNRM-CERFACS-CNRM-CM5_rcp45_r1i1p1_CLMcom-CCLM4-8-17</t>
+  </si>
+  <si>
+    <t>EC-EARTH_rcp45_r12i1p1</t>
+  </si>
+  <si>
+    <t>SDM_ICHEC-EC-EARTH_rcp45_r12i1p1_CLMcom-CCLM4-8-17</t>
+  </si>
+  <si>
+    <t>EC-EARTH_rcp45_r1i1p1</t>
+  </si>
+  <si>
+    <t>SDM_ICHEC-EC-EARTH_rcp45_r1i1p1_KNMI-RACMO22E</t>
+  </si>
+  <si>
+    <t>HadGEM2-ES_rcp45_r1i1p1</t>
+  </si>
+  <si>
+    <t>SDM_MOHC-HadGEM2-ES_rcp45_r1i1p1_CLMcom-CCLM4-8-17</t>
+  </si>
+  <si>
+    <t>IPSL-CM5A-MR_rcp45_r1i1p1</t>
+  </si>
+  <si>
+    <t>SDM_IPSL-IPSL-CM5A-MR_rcp45_r1i1p1_IPSL-INERIS-WRF331F</t>
+  </si>
+  <si>
+    <t>MPI-ESM-LR_rcp45_r1i1p1</t>
+  </si>
+  <si>
+    <t>SDM_MPI-M-MPI-ESM-LR_rcp45_r1i1p1_CLMcom-CCLM4-8-17</t>
+  </si>
+  <si>
+    <t>CNRM-CM5_rcp85_r1i1p1</t>
+  </si>
+  <si>
+    <t>SDM_CNRM-CERFACS-CNRM-CM5_rcp85_r1i1p1_CLMcom-CCLM4-8-17</t>
+  </si>
+  <si>
+    <t>EC-EARTH_rcp85_r12i1p1</t>
+  </si>
+  <si>
+    <t>SDM_ICHEC-EC-EARTH_rcp85_r12i1p1_CLMcom-CCLM4-8-17</t>
+  </si>
+  <si>
+    <t>EC-EARTH_rcp85_r1i1p1</t>
+  </si>
+  <si>
+    <t>SDM_ICHEC-EC-EARTH_rcp85_r1i1p1_KNMI-RACMO22E</t>
+  </si>
+  <si>
+    <t>HadGEM2-ES_rcp85_r1i1p1</t>
+  </si>
+  <si>
+    <t>SDM_MOHC-HadGEM2-ES_rcp85_r1i1p1_CLMcom-CCLM4-8-17</t>
+  </si>
+  <si>
+    <t>IPSL-CM5A-MR_rcp85_r1i1p1</t>
+  </si>
+  <si>
+    <t>SDM_IPSL-IPSL-CM5A-MR_rcp85_r1i1p1_IPSL-INERIS-WRF331F</t>
+  </si>
+  <si>
+    <t>MPI-ESM-LR_rcp85_r1i1p1</t>
+  </si>
+  <si>
+    <t>SDM_MPI-M-MPI-ESM-LR_rcp85_r1i1p1_CLMcom-CCLM4-8-17</t>
   </si>
 </sst>
 </file>
@@ -588,7 +773,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +783,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -638,6 +913,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -964,65 +1255,65 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3"/>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.34</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7"/>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="9">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="10">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="11"/>
     <cx:data id="12">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.32</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="13">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.36</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="14">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1489,37 +1780,37 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.44</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.45</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.46</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.47</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.48</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.49</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1808,43 +2099,43 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.58</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.59</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.60</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.61</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4"/>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.62</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.63</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.64</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.65</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2185,45 +2476,45 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.111</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.107</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2"/>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.112</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.108</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5"/>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.113</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.109</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8"/>
     <cx:data id="9">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.106</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="10">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.34</cx:f>
+        <cx:f>_xlchart.v1.110</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4848,7 +5139,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{81644377-E7AA-444F-8468-BD962E936055}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4925,7 +5216,7 @@
         <cdr:cNvPr id="2" name="Rechteck 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F22FDB-1BBB-36D1-5572-6C2C76E09570}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3D83DA-FA52-75F9-2A92-45AD68849814}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -5036,7 +5327,7 @@
         <cdr:cNvPr id="2" name="Rechteck 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB2EE71-5B19-BF0F-9A0F-BB375099F085}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA60A558-EA56-77B5-EB3E-A0F7C3B872E2}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -5147,7 +5438,7 @@
         <cdr:cNvPr id="2" name="Rechteck 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8B88A5-D493-678B-0A95-C2213A77D2BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4456A8B6-6876-22DF-0554-59C6CE437AAA}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -5258,7 +5549,7 @@
         <cdr:cNvPr id="2" name="Rechteck 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE7AD23-3FDC-038E-A653-446C0ECB15BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E70BC53E-9EF5-3F9A-D818-BFFC4A260A77}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -5628,13 +5919,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
@@ -5651,7 +5935,13 @@
       <sheetName val="Tabelle2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3">
+            <v>2008</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5956,8 +6246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BBA8D8-38A6-D64C-8995-1DD32E209727}">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:X40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6115,19 +6405,19 @@
         <v>3.52027187781992</v>
       </c>
       <c r="S3" s="2">
-        <f>O3*$X$14</f>
+        <f t="shared" ref="S3:V7" si="0">O3*$X$14</f>
         <v>0.62994520277878241</v>
       </c>
       <c r="T3" s="2">
-        <f>P3*$X$14</f>
+        <f t="shared" si="0"/>
         <v>1.1567084933856</v>
       </c>
       <c r="U3" s="2">
-        <f>Q3*$X$14</f>
+        <f t="shared" si="0"/>
         <v>2.2556151417432724</v>
       </c>
       <c r="V3" s="2">
-        <f>R3*$X$14</f>
+        <f t="shared" si="0"/>
         <v>3.1330982956097739</v>
       </c>
       <c r="W3" t="s">
@@ -6178,19 +6468,19 @@
         <v>3.339906805131224</v>
       </c>
       <c r="S4" s="2">
-        <f>O4*$X$14</f>
+        <f t="shared" si="0"/>
         <v>0.27537090674103498</v>
       </c>
       <c r="T4" s="2">
-        <f>P4*$X$14</f>
+        <f t="shared" si="0"/>
         <v>0.81334299913851593</v>
       </c>
       <c r="U4" s="2">
-        <f>Q4*$X$14</f>
+        <f t="shared" si="0"/>
         <v>1.8210182716642414</v>
       </c>
       <c r="V4" s="2">
-        <f>R4*$X$14</f>
+        <f t="shared" si="0"/>
         <v>2.9725704950756717</v>
       </c>
       <c r="W4" t="s">
@@ -6221,31 +6511,31 @@
         <v>0.42373448052118845</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:R5" si="0">_xlfn.PERCENTILE.INC(L3:L40, 0.25)</f>
+        <f t="shared" ref="P5:R5" si="1">_xlfn.PERCENTILE.INC(L3:L40, 0.25)</f>
         <v>0.99799558046758508</v>
       </c>
       <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>2.3017558150316049</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>3.4588945566587102</v>
+      </c>
+      <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>2.3017558150316049</v>
-      </c>
-      <c r="R5">
+        <v>0.37713046741554607</v>
+      </c>
+      <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>3.4588945566587102</v>
-      </c>
-      <c r="S5" s="2">
-        <f>O5*$X$14</f>
-        <v>0.37713046741554607</v>
-      </c>
-      <c r="T5" s="2">
-        <f>P5*$X$14</f>
         <v>0.8882320345454382</v>
       </c>
       <c r="U5" s="2">
-        <f>Q5*$X$14</f>
+        <f t="shared" si="0"/>
         <v>2.048599503471169</v>
       </c>
       <c r="V5" s="2">
-        <f>R5*$X$14</f>
+        <f t="shared" si="0"/>
         <v>3.0784714977391587</v>
       </c>
       <c r="W5" t="s">
@@ -6284,31 +6574,31 @@
         <v>1.11225858012673</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:R6" si="1">_xlfn.PERCENTILE.INC(L3:L40, 0.75)</f>
+        <f t="shared" ref="P6:R6" si="2">_xlfn.PERCENTILE.INC(L3:L40, 0.75)</f>
         <v>1.8485991304645699</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.99392916888893</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7640512307108902</v>
       </c>
       <c r="S6" s="2">
-        <f>O6*$X$14</f>
+        <f t="shared" si="0"/>
         <v>0.98992793245007171</v>
       </c>
       <c r="T6" s="2">
-        <f>P6*$X$14</f>
+        <f t="shared" si="0"/>
         <v>1.6452828036995548</v>
       </c>
       <c r="U6" s="2">
-        <f>Q6*$X$14</f>
+        <f t="shared" si="0"/>
         <v>2.6646448631778501</v>
       </c>
       <c r="V6" s="2">
-        <f>R6*$X$14</f>
+        <f t="shared" si="0"/>
         <v>3.3500658201523836</v>
       </c>
       <c r="W6" t="s">
@@ -6347,31 +6637,31 @@
         <v>1.4237366892492251</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:R7" si="2">_xlfn.PERCENTILE.INC(L3:L40, 0.9)</f>
+        <f t="shared" ref="P7:R7" si="3">_xlfn.PERCENTILE.INC(L3:L40, 0.9)</f>
         <v>2.046066781590504</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3087344173273978</v>
       </c>
       <c r="R7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3098857941212074</v>
       </c>
       <c r="S7" s="2">
-        <f>O7*$X$14</f>
+        <f t="shared" si="0"/>
         <v>1.2671484332188383</v>
       </c>
       <c r="T7" s="2">
-        <f>P7*$X$14</f>
+        <f t="shared" si="0"/>
         <v>1.8210321726840542</v>
       </c>
       <c r="U7" s="2">
-        <f>Q7*$X$14</f>
+        <f t="shared" si="0"/>
         <v>2.9448265711720616</v>
       </c>
       <c r="V7" s="2">
-        <f>R7*$X$14</f>
+        <f t="shared" si="0"/>
         <v>3.8358673149405806</v>
       </c>
       <c r="W7" t="s">
@@ -7588,7 +7878,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="E46" sqref="E45:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8423,7 +8713,7 @@
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection sqref="A1:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9325,4 +9615,3976 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2548C05-2771-3848-B012-80E012E4F18B}">
+  <dimension ref="A2:BF85"/>
+  <sheetViews>
+    <sheetView topLeftCell="AH37" workbookViewId="0">
+      <selection activeCell="AT72" sqref="AT72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" style="21" customWidth="1"/>
+    <col min="2" max="17" width="10.83203125" style="21"/>
+    <col min="18" max="18" width="39.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="30" width="10.83203125" style="21"/>
+    <col min="31" max="31" width="47.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="32" max="38" width="10.83203125" style="21"/>
+    <col min="39" max="39" width="47.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="10.83203125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="R2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AE2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AM2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE3"/>
+      <c r="BF3"/>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4">
+        <v>2024</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4">
+        <v>2088</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.15918416752297701</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
+        <v>9.0623809999999999E-2</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="R4" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T4">
+        <v>2023</v>
+      </c>
+      <c r="U4">
+        <v>2044</v>
+      </c>
+      <c r="V4">
+        <v>2076</v>
+      </c>
+      <c r="W4">
+        <v>2084</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.46622947410301602</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.87075942812776297</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.8179915675410701</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>3.8378899609600099</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF4">
+        <v>2042</v>
+      </c>
+      <c r="AG4">
+        <v>2058</v>
+      </c>
+      <c r="AH4">
+        <v>2066</v>
+      </c>
+      <c r="AI4">
+        <v>2055</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO4">
+        <v>2013</v>
+      </c>
+      <c r="AP4">
+        <v>2025</v>
+      </c>
+      <c r="AQ4">
+        <v>2050</v>
+      </c>
+      <c r="AR4">
+        <v>2084</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>0.39268916094745798</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>1.12528774120191</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>2.4992855354591899</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>3.4649832266348399</v>
+      </c>
+      <c r="AW4" s="2">
+        <f>MEDIAN(AS4:AS39)</f>
+        <v>0.70779087429752097</v>
+      </c>
+      <c r="AX4" s="2">
+        <f>MEDIAN(AT4:AT38)</f>
+        <v>1.2996490999999999</v>
+      </c>
+      <c r="AY4" s="2">
+        <f>MEDIAN(AU4:AU25)</f>
+        <v>2.5343534742558251</v>
+      </c>
+      <c r="AZ4" s="2">
+        <f>MEDIAN(AV4:AV19)</f>
+        <v>3.52027187781992</v>
+      </c>
+      <c r="BA4" s="2">
+        <f t="shared" ref="BA4:BD8" si="0">AW4*$X$13</f>
+        <v>0.29232356670228443</v>
+      </c>
+      <c r="BB4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.53676597731000808</v>
+      </c>
+      <c r="BC4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0467092382535734</v>
+      </c>
+      <c r="BD4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.453901806953082</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF4"/>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5">
+        <v>2024</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5">
+        <v>2083</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.3653254416148299</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>1.0329398999999999</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="R5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5">
+        <v>2012</v>
+      </c>
+      <c r="U5">
+        <v>2034</v>
+      </c>
+      <c r="V5">
+        <v>2070</v>
+      </c>
+      <c r="W5">
+        <v>2086</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.24525560358096299</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.96672905815973698</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1.9388497246635801</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>3.5750805834353399</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF5">
+        <v>2036</v>
+      </c>
+      <c r="AG5">
+        <v>2044</v>
+      </c>
+      <c r="AH5">
+        <v>2050</v>
+      </c>
+      <c r="AI5">
+        <v>2054</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO5">
+        <v>2019</v>
+      </c>
+      <c r="AP5">
+        <v>2038</v>
+      </c>
+      <c r="AQ5">
+        <v>2045</v>
+      </c>
+      <c r="AR5">
+        <v>2081</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>0.5449524</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>1.2996490999999999</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>1.9685270945232201</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>3.1466245015463401</v>
+      </c>
+      <c r="AW5">
+        <f>_xlfn.PERCENTILE.INC(AS4:AS39, 0.1)</f>
+        <v>0.30939995094586498</v>
+      </c>
+      <c r="AX5">
+        <f>_xlfn.PERCENTILE.INC(AT4:AT38, 0.1)</f>
+        <v>0.91385210955591345</v>
+      </c>
+      <c r="AY5">
+        <f>_xlfn.PERCENTILE.INC(AU4:AU25, 0.1)</f>
+        <v>2.046051162747907</v>
+      </c>
+      <c r="AZ5">
+        <f>_xlfn.PERCENTILE.INC(AV4:AV19, 0.1)</f>
+        <v>3.339906805131224</v>
+      </c>
+      <c r="BA5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12778477440497268</v>
+      </c>
+      <c r="BB5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.37742858491772313</v>
+      </c>
+      <c r="BC5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84503628864026348</v>
+      </c>
+      <c r="BD5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3794095193699654</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>154</v>
+      </c>
+      <c r="BF5"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6">
+        <v>2072</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.56211865743001899</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>0.44223594999999999</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="R6" t="s">
+        <v>119</v>
+      </c>
+      <c r="S6" t="s">
+        <v>143</v>
+      </c>
+      <c r="T6">
+        <v>2014</v>
+      </c>
+      <c r="U6">
+        <v>2032</v>
+      </c>
+      <c r="V6">
+        <v>2060</v>
+      </c>
+      <c r="W6">
+        <v>2069</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.31774715847441198</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.89545909033877502</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>2.2598840219002199</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>3.2761420921043301</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF6">
+        <v>2031</v>
+      </c>
+      <c r="AG6">
+        <v>2027</v>
+      </c>
+      <c r="AH6">
+        <v>2041</v>
+      </c>
+      <c r="AI6">
+        <v>2073</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO6">
+        <v>2042</v>
+      </c>
+      <c r="AP6">
+        <v>2027</v>
+      </c>
+      <c r="AQ6">
+        <v>2085</v>
+      </c>
+      <c r="AR6">
+        <v>2060</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>0.50765736677745898</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>0.91811225325973</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>1.9276448337221399</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>3.8095987673158902</v>
+      </c>
+      <c r="AW6">
+        <f>_xlfn.PERCENTILE.INC(AS4:AS39, 0.25)</f>
+        <v>0.42373448052118845</v>
+      </c>
+      <c r="AX6">
+        <f>_xlfn.PERCENTILE.INC(AT4:AT38, 0.25)</f>
+        <v>0.99799558046758508</v>
+      </c>
+      <c r="AY6">
+        <f>_xlfn.PERCENTILE.INC(AU4:AU25, 0.25)</f>
+        <v>2.3017558150316049</v>
+      </c>
+      <c r="AZ6">
+        <f>_xlfn.PERCENTILE.INC(AV4:AV19, 0.25)</f>
+        <v>3.4588945566587102</v>
+      </c>
+      <c r="BA6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1750058939423759</v>
+      </c>
+      <c r="BB6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41218054404127397</v>
+      </c>
+      <c r="BC6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95064445440267953</v>
+      </c>
+      <c r="BD6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4285524585960776</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF6"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7">
+        <v>2017</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7">
+        <v>2067</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.57081158955894795</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>0.586391</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="R7" t="s">
+        <v>118</v>
+      </c>
+      <c r="S7" t="s">
+        <v>143</v>
+      </c>
+      <c r="T7">
+        <v>2044</v>
+      </c>
+      <c r="U7">
+        <v>2047</v>
+      </c>
+      <c r="V7">
+        <v>2060</v>
+      </c>
+      <c r="W7">
+        <v>2088</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0.83663283039253999</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0.89021165758271004</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>2.72245074781776</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>3.8460715047062499</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF7">
+        <v>2014</v>
+      </c>
+      <c r="AG7">
+        <v>2025</v>
+      </c>
+      <c r="AH7">
+        <v>2045</v>
+      </c>
+      <c r="AI7">
+        <v>2067</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO7">
+        <v>2014</v>
+      </c>
+      <c r="AP7">
+        <v>2021</v>
+      </c>
+      <c r="AQ7">
+        <v>2063</v>
+      </c>
+      <c r="AR7">
+        <v>2057</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>0.44814990008318001</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>0.45363177546752198</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>2.4659900553596299</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>3.5383904068558998</v>
+      </c>
+      <c r="AW7">
+        <f>_xlfn.PERCENTILE.INC(AS4:AS39, 0.75)</f>
+        <v>1.11225858012673</v>
+      </c>
+      <c r="AX7">
+        <f>_xlfn.PERCENTILE.INC(AT4:AT38, 0.75)</f>
+        <v>1.8485991304645699</v>
+      </c>
+      <c r="AY7">
+        <f>_xlfn.PERCENTILE.INC(AU4:AU25, 0.75)</f>
+        <v>2.99392916888893</v>
+      </c>
+      <c r="AZ7">
+        <f>_xlfn.PERCENTILE.INC(AV4:AV19, 0.75)</f>
+        <v>3.7640512307108902</v>
+      </c>
+      <c r="BA7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45937212112343717</v>
+      </c>
+      <c r="BB7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.76348694345131007</v>
+      </c>
+      <c r="BC7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2365178541928024</v>
+      </c>
+      <c r="BD7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.55458472405934</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF7"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8">
+        <v>2038</v>
+      </c>
+      <c r="D8">
+        <v>2059</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8">
+        <v>2082</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.63252829487877804</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.610914836536</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>0.35588681999999999</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.1164337</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="R8" t="s">
+        <v>120</v>
+      </c>
+      <c r="S8" t="s">
+        <v>143</v>
+      </c>
+      <c r="T8">
+        <v>2011</v>
+      </c>
+      <c r="U8">
+        <v>2044</v>
+      </c>
+      <c r="V8">
+        <v>2050</v>
+      </c>
+      <c r="W8">
+        <v>2071</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0.36656778123640099</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>1.0014052497016299</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1.8766875938133201</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>3.4109224743312501</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF8">
+        <v>2014</v>
+      </c>
+      <c r="AG8">
+        <v>2023</v>
+      </c>
+      <c r="AH8">
+        <v>2038</v>
+      </c>
+      <c r="AI8">
+        <v>2080</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO8">
+        <v>2010</v>
+      </c>
+      <c r="AP8">
+        <v>2060</v>
+      </c>
+      <c r="AQ8">
+        <v>2066</v>
+      </c>
+      <c r="AR8">
+        <v>2084</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>0.214749413949505</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>1.4934826904101901</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>2.7629134999999998</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>3.5346176677093801</v>
+      </c>
+      <c r="AW8">
+        <f>_xlfn.PERCENTILE.INC(AS4:AS39, 0.9)</f>
+        <v>1.4237366892492251</v>
+      </c>
+      <c r="AX8">
+        <f>_xlfn.PERCENTILE.INC(AT4:AT38, 0.9)</f>
+        <v>2.046066781590504</v>
+      </c>
+      <c r="AY8">
+        <f>_xlfn.PERCENTILE.INC(AU4:AU25, 0.9)</f>
+        <v>3.3087344173273978</v>
+      </c>
+      <c r="AZ8">
+        <f>_xlfn.PERCENTILE.INC(AV4:AV19, 0.9)</f>
+        <v>4.3098857941212074</v>
+      </c>
+      <c r="BA8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58801519228303667</v>
+      </c>
+      <c r="BB8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84504273935323748</v>
+      </c>
+      <c r="BC8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3665350617916796</v>
+      </c>
+      <c r="BD8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7800189761805629</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF8"/>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9">
+        <v>2023</v>
+      </c>
+      <c r="D9">
+        <v>2045</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" s="2">
+        <v>0.37880875913762102</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.86234560615966405</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
+        <v>0.38333833</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.77936709999999998</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="R9" t="s">
+        <v>121</v>
+      </c>
+      <c r="S9" t="s">
+        <v>143</v>
+      </c>
+      <c r="T9">
+        <v>2016</v>
+      </c>
+      <c r="U9">
+        <v>2035</v>
+      </c>
+      <c r="V9">
+        <v>2068</v>
+      </c>
+      <c r="W9">
+        <v>2066</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0.387773928972933</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0.58958780640360797</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>2.6047206391182098</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AE9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF9">
+        <v>2013</v>
+      </c>
+      <c r="AG9">
+        <v>2021</v>
+      </c>
+      <c r="AH9">
+        <v>2059</v>
+      </c>
+      <c r="AI9">
+        <v>2080</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO9">
+        <v>2028</v>
+      </c>
+      <c r="AP9">
+        <v>2031</v>
+      </c>
+      <c r="AQ9">
+        <v>2075</v>
+      </c>
+      <c r="AR9">
+        <v>2077</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>0.68443506444989699</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>0.94311847540844496</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>3.1576496725510599</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>3.34699536413342</v>
+      </c>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10">
+        <v>2023</v>
+      </c>
+      <c r="D10">
+        <v>2045</v>
+      </c>
+      <c r="E10"/>
+      <c r="G10" s="2">
+        <v>0.457424211517724</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.62479549838627901</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>0.56741010000000003</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.83607894000000005</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="R10" t="s">
+        <v>124</v>
+      </c>
+      <c r="S10" t="s">
+        <v>143</v>
+      </c>
+      <c r="T10">
+        <v>2085</v>
+      </c>
+      <c r="U10">
+        <v>2032</v>
+      </c>
+      <c r="V10">
+        <v>2055</v>
+      </c>
+      <c r="W10"/>
+      <c r="X10" s="2">
+        <v>1.41822244149666</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0.81726423192909303</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>3.3167032989732199</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AE10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF10">
+        <v>2010</v>
+      </c>
+      <c r="AG10">
+        <v>2021</v>
+      </c>
+      <c r="AH10">
+        <v>2052</v>
+      </c>
+      <c r="AI10">
+        <v>2067</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO10">
+        <v>2018</v>
+      </c>
+      <c r="AP10">
+        <v>2039</v>
+      </c>
+      <c r="AQ10">
+        <v>2044</v>
+      </c>
+      <c r="AR10">
+        <v>2077</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>0.71423186692603902</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>0.99413149999999995</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>2.2924630200421401</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>3.4568650000000001</v>
+      </c>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11">
+        <v>2029</v>
+      </c>
+      <c r="D11">
+        <v>2044</v>
+      </c>
+      <c r="E11">
+        <v>2079</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.28844432176343</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.99852194768752</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2.8577991666382299</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>0.96591585999999996</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.6673487</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2.4161831999999999</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="R11" t="s">
+        <v>123</v>
+      </c>
+      <c r="S11" t="s">
+        <v>143</v>
+      </c>
+      <c r="T11">
+        <v>2022</v>
+      </c>
+      <c r="U11">
+        <v>2059</v>
+      </c>
+      <c r="V11">
+        <v>2048</v>
+      </c>
+      <c r="W11"/>
+      <c r="X11" s="2">
+        <v>0.24246749877933901</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>1.610914836536</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>2.1671324835882499</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF11">
+        <v>2010</v>
+      </c>
+      <c r="AG11">
+        <v>2020</v>
+      </c>
+      <c r="AH11">
+        <v>2060</v>
+      </c>
+      <c r="AI11"/>
+      <c r="AM11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO11">
+        <v>2020</v>
+      </c>
+      <c r="AP11">
+        <v>2058</v>
+      </c>
+      <c r="AQ11">
+        <v>2040</v>
+      </c>
+      <c r="AR11">
+        <v>2055</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>0.48637999999999998</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>1.79025508687392</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>2.1102778682003001</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>3.47663613778573</v>
+      </c>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12">
+        <v>2017</v>
+      </c>
+      <c r="D12">
+        <v>2034</v>
+      </c>
+      <c r="E12">
+        <v>2078</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.36612952992296299</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.83404442313203897</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2.1307141433336501</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
+        <v>0.18303112999999999</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.70583885999999996</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1.762397</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="R12" t="s">
+        <v>133</v>
+      </c>
+      <c r="S12" t="s">
+        <v>145</v>
+      </c>
+      <c r="T12">
+        <v>2012</v>
+      </c>
+      <c r="U12">
+        <v>2031</v>
+      </c>
+      <c r="V12">
+        <v>2074</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0.26356427112833902</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0.80277699364550803</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>2.51032525521738</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF12">
+        <v>2009</v>
+      </c>
+      <c r="AG12">
+        <v>2049</v>
+      </c>
+      <c r="AH12">
+        <v>2060</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO12">
+        <v>2036</v>
+      </c>
+      <c r="AP12">
+        <v>2025</v>
+      </c>
+      <c r="AQ12">
+        <v>2067</v>
+      </c>
+      <c r="AR12">
+        <v>2054</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>1.24800717137679</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>1.07768163327819</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>2.3489683580133098</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>3.3368688512731399</v>
+      </c>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13">
+        <v>2023</v>
+      </c>
+      <c r="D13">
+        <v>2045</v>
+      </c>
+      <c r="E13">
+        <v>2068</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.27052468193900803</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.99868554009331101</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
+        <v>0.17434321</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.79325056000000005</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="R13" t="s">
+        <v>132</v>
+      </c>
+      <c r="S13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T13">
+        <v>2018</v>
+      </c>
+      <c r="U13">
+        <v>2074</v>
+      </c>
+      <c r="V13">
+        <v>2070</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0.41300838611745899</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>1.85172906098548</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>2.5225286695692</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF13">
+        <v>2028</v>
+      </c>
+      <c r="AG13">
+        <v>2041</v>
+      </c>
+      <c r="AH13">
+        <v>2066</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO13">
+        <v>2014</v>
+      </c>
+      <c r="AP13">
+        <v>2021</v>
+      </c>
+      <c r="AQ13">
+        <v>2058</v>
+      </c>
+      <c r="AR13">
+        <v>2073</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>0.39986685293692897</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>0.91101201375336904</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>2.0447804772332998</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>3.6274086208958898</v>
+      </c>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14">
+        <v>2031</v>
+      </c>
+      <c r="D14">
+        <v>2046</v>
+      </c>
+      <c r="E14">
+        <v>2061</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.80631215971271497</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1.5717548309150999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2.6047206391182098</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3.8460715047062499</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.50512855999999995</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1.0469978</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2.019355</v>
+      </c>
+      <c r="N14" s="2">
+        <v>3.0102582</v>
+      </c>
+      <c r="R14" t="s">
+        <v>128</v>
+      </c>
+      <c r="S14" t="s">
+        <v>145</v>
+      </c>
+      <c r="T14">
+        <v>2038</v>
+      </c>
+      <c r="U14">
+        <v>2068</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0.63252829487877804</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>1.4275242982087399</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF14">
+        <v>2031</v>
+      </c>
+      <c r="AG14">
+        <v>2034</v>
+      </c>
+      <c r="AH14">
+        <v>2051</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO14">
+        <v>2010</v>
+      </c>
+      <c r="AP14">
+        <v>2049</v>
+      </c>
+      <c r="AQ14">
+        <v>2056</v>
+      </c>
+      <c r="AR14">
+        <v>2067</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>0.247648154364804</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>0.94604524693873704</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>2.3296342000000001</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>3.5059260879304599</v>
+      </c>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+      <c r="BE14"/>
+      <c r="BF14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15">
+        <v>2019</v>
+      </c>
+      <c r="D15">
+        <v>2035</v>
+      </c>
+      <c r="E15">
+        <v>2062</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.32010671893003101</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.94183442623305202</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1.93926760911421</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2">
+        <v>0.23519899999999999</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.70149916000000001</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.7608200000000001</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="R15" t="s">
+        <v>127</v>
+      </c>
+      <c r="S15" t="s">
+        <v>145</v>
+      </c>
+      <c r="T15">
+        <v>2014</v>
+      </c>
+      <c r="U15">
+        <v>2037</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0.26854250166147098</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>1.4150692127368201</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF15">
+        <v>2029</v>
+      </c>
+      <c r="AG15">
+        <v>2030</v>
+      </c>
+      <c r="AH15">
+        <v>2078</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO15">
+        <v>2031</v>
+      </c>
+      <c r="AP15">
+        <v>2034</v>
+      </c>
+      <c r="AQ15">
+        <v>2091</v>
+      </c>
+      <c r="AR15">
+        <v>2080</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>0.79185877975170005</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>1.27930423687614</v>
+      </c>
+      <c r="AU15" s="2">
+        <v>3.6687247613706999</v>
+      </c>
+      <c r="AV15" s="2">
+        <v>4.4327790092828199</v>
+      </c>
+      <c r="AW15"/>
+      <c r="AX15"/>
+      <c r="AY15"/>
+      <c r="AZ15"/>
+      <c r="BA15"/>
+      <c r="BB15"/>
+      <c r="BC15"/>
+      <c r="BD15"/>
+      <c r="BE15"/>
+      <c r="BF15">
+        <v>0.89001600000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16">
+        <v>2020</v>
+      </c>
+      <c r="D16">
+        <v>2036</v>
+      </c>
+      <c r="E16">
+        <v>2055</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.33111575072592803</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.90064316589890403</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1.5027791696181101</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2.9187363127111499</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.50606775000000004</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.98450917000000004</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.5260384</v>
+      </c>
+      <c r="N16" s="2">
+        <v>3.250985</v>
+      </c>
+      <c r="R16" t="s">
+        <v>129</v>
+      </c>
+      <c r="S16" t="s">
+        <v>145</v>
+      </c>
+      <c r="T16">
+        <v>2040</v>
+      </c>
+      <c r="U16">
+        <v>2029</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1.2713410977964501</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0.85248630903591305</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF16">
+        <v>2018</v>
+      </c>
+      <c r="AG16">
+        <v>2042</v>
+      </c>
+      <c r="AH16">
+        <v>2077</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO16">
+        <v>2020</v>
+      </c>
+      <c r="AP16">
+        <v>2050</v>
+      </c>
+      <c r="AQ16">
+        <v>2066</v>
+      </c>
+      <c r="AR16">
+        <v>2080</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>0.65928880106152898</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>1.6772889300680101</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>3.30951525175441</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>4.3885902773160099</v>
+      </c>
+      <c r="AW16"/>
+      <c r="AX16"/>
+      <c r="AY16"/>
+      <c r="AZ16"/>
+      <c r="BA16"/>
+      <c r="BB16"/>
+      <c r="BC16"/>
+      <c r="BD16"/>
+      <c r="BE16"/>
+      <c r="BF16"/>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17">
+        <v>2024</v>
+      </c>
+      <c r="D17">
+        <v>2036</v>
+      </c>
+      <c r="E17">
+        <v>2051</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.2518766969956201</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1.65339945881786</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2.85472428786268</v>
+      </c>
+      <c r="J17" s="2">
+        <v>4.2617375100454602</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.97386439999999996</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1.3713690999999999</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2.4136199999999999</v>
+      </c>
+      <c r="N17" s="2">
+        <v>3.6632657000000002</v>
+      </c>
+      <c r="R17" t="s">
+        <v>131</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="T17">
+        <v>2042</v>
+      </c>
+      <c r="U17">
+        <v>2027</v>
+      </c>
+      <c r="X17" s="2">
+        <v>1.04776215729892</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0.73833098234956296</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF17">
+        <v>2020</v>
+      </c>
+      <c r="AG17">
+        <v>2042</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO17">
+        <v>2032</v>
+      </c>
+      <c r="AP17">
+        <v>2050</v>
+      </c>
+      <c r="AQ17">
+        <v>2041</v>
+      </c>
+      <c r="AR17">
+        <v>2067</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>0.99720703714845305</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>1.65557634817044</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>2.3371529190628499</v>
+      </c>
+      <c r="AV17" s="2">
+        <v>4.1262420000000004</v>
+      </c>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18">
+        <v>2016</v>
+      </c>
+      <c r="D18">
+        <v>2031</v>
+      </c>
+      <c r="E18">
+        <v>2062</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.45625948782276199</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.70197696001481202</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2.0070241649878402</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3.2069946275303298</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.40934577999999999</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.16441785</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.91975899999999999</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2.1218149999999998</v>
+      </c>
+      <c r="R18" t="s">
+        <v>130</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="T18">
+        <v>2020</v>
+      </c>
+      <c r="U18">
+        <v>2046</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0.25636699817790398</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>1.5717548309150999</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF18">
+        <v>2019</v>
+      </c>
+      <c r="AG18">
+        <v>2039</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO18">
+        <v>2032</v>
+      </c>
+      <c r="AP18">
+        <v>2034</v>
+      </c>
+      <c r="AQ18">
+        <v>2038</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>0.98323817518911405</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>1.4451324999999999</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>2.0574873323793699</v>
+      </c>
+      <c r="AV18" s="2"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19">
+        <v>2018</v>
+      </c>
+      <c r="D19">
+        <v>2038</v>
+      </c>
+      <c r="E19"/>
+      <c r="G19" s="2">
+        <v>0.28053309122718101</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.89448763529455499</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2.13368631998694</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3.25464655558264</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.29101974000000003</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.7321299</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1.7708900999999999</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2.7940573999999998</v>
+      </c>
+      <c r="R19" t="s">
+        <v>141</v>
+      </c>
+      <c r="S19" t="s">
+        <v>144</v>
+      </c>
+      <c r="T19">
+        <v>2011</v>
+      </c>
+      <c r="U19">
+        <v>2035</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0.19708605850399499</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>1.8814544179047701</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF19">
+        <v>2030</v>
+      </c>
+      <c r="AG19">
+        <v>2034</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO19">
+        <v>2019</v>
+      </c>
+      <c r="AP19">
+        <v>2086</v>
+      </c>
+      <c r="AQ19">
+        <v>2059</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>0.52504269999999997</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>2.1603128362584698</v>
+      </c>
+      <c r="AU19" s="2">
+        <v>2.56942141305246</v>
+      </c>
+      <c r="AV19" s="2"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="R20" t="s">
+        <v>140</v>
+      </c>
+      <c r="S20" t="s">
+        <v>144</v>
+      </c>
+      <c r="T20">
+        <v>2014</v>
+      </c>
+      <c r="U20">
+        <v>2027</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0.29994389569320301</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0.97698444790303796</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF20">
+        <v>2030</v>
+      </c>
+      <c r="AG20">
+        <v>2035</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO20">
+        <v>2056</v>
+      </c>
+      <c r="AP20">
+        <v>2079</v>
+      </c>
+      <c r="AQ20">
+        <v>2052</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>1.6532092765525299</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>1.9302608195684401</v>
+      </c>
+      <c r="AU20" s="2">
+        <v>2.7606360962669898</v>
+      </c>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="R21" t="s">
+        <v>135</v>
+      </c>
+      <c r="S21" t="s">
+        <v>144</v>
+      </c>
+      <c r="T21">
+        <v>2031</v>
+      </c>
+      <c r="U21">
+        <v>2050</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0.80631215971271497</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>1.1650189858895901</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF21">
+        <v>2020</v>
+      </c>
+      <c r="AG21">
+        <v>2086</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO21">
+        <v>2047</v>
+      </c>
+      <c r="AP21">
+        <v>2047</v>
+      </c>
+      <c r="AQ21">
+        <v>2060</v>
+      </c>
+      <c r="AS21" s="2">
+        <v>1.4766804064679699</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>2.0308371339899698</v>
+      </c>
+      <c r="AU21" s="2">
+        <v>3.00087035879264</v>
+      </c>
+      <c r="AW21"/>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="AZ21"/>
+      <c r="BA21"/>
+      <c r="BB21"/>
+      <c r="BC21"/>
+      <c r="BD21"/>
+      <c r="BE21"/>
+      <c r="BF21"/>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="R22" t="s">
+        <v>134</v>
+      </c>
+      <c r="S22" t="s">
+        <v>144</v>
+      </c>
+      <c r="T22">
+        <v>2023</v>
+      </c>
+      <c r="U22">
+        <v>2048</v>
+      </c>
+      <c r="X22" s="2">
+        <v>1.2547776910347199</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>1.39141197204587</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF22">
+        <v>2019</v>
+      </c>
+      <c r="AG22">
+        <v>2057</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO22">
+        <v>2033</v>
+      </c>
+      <c r="AP22">
+        <v>2024</v>
+      </c>
+      <c r="AQ22">
+        <v>2060</v>
+      </c>
+      <c r="AS22" s="2">
+        <v>0.99175239911429003</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>1.11234708715366</v>
+      </c>
+      <c r="AU22" s="2">
+        <v>2.9731055991778002</v>
+      </c>
+      <c r="AW22"/>
+      <c r="AX22"/>
+      <c r="AY22"/>
+      <c r="AZ22"/>
+      <c r="BA22"/>
+      <c r="BB22"/>
+      <c r="BC22"/>
+      <c r="BD22"/>
+      <c r="BE22"/>
+      <c r="BF22"/>
+    </row>
+    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="R23" t="s">
+        <v>136</v>
+      </c>
+      <c r="S23" t="s">
+        <v>144</v>
+      </c>
+      <c r="T23">
+        <v>2011</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0.27716342078308198</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF23">
+        <v>2019</v>
+      </c>
+      <c r="AG23">
+        <v>2079</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO23">
+        <v>2014</v>
+      </c>
+      <c r="AP23">
+        <v>2020</v>
+      </c>
+      <c r="AQ23">
+        <v>2051</v>
+      </c>
+      <c r="AS23" s="2">
+        <v>0.37115174752692598</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>0.76098490114573802</v>
+      </c>
+      <c r="AU23" s="2">
+        <v>2.6564833999999999</v>
+      </c>
+      <c r="AW23"/>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="BA23"/>
+      <c r="BB23"/>
+      <c r="BC23"/>
+      <c r="BD23"/>
+      <c r="BE23"/>
+      <c r="BF23"/>
+    </row>
+    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="R24" t="s">
+        <v>137</v>
+      </c>
+      <c r="S24" t="s">
+        <v>144</v>
+      </c>
+      <c r="T24">
+        <v>2033</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0.78084819934989003</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF24">
+        <v>2056</v>
+      </c>
+      <c r="AG24">
+        <v>2055</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO24">
+        <v>2009</v>
+      </c>
+      <c r="AP24">
+        <v>2046</v>
+      </c>
+      <c r="AQ24">
+        <v>2078</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>0.202890579788851</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>1.2460704672045699</v>
+      </c>
+      <c r="AU24" s="2">
+        <v>3.3017069074842902</v>
+      </c>
+      <c r="AW24"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
+      <c r="BC24"/>
+      <c r="BD24"/>
+      <c r="BE24"/>
+      <c r="BF24"/>
+    </row>
+    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="R25" t="s">
+        <v>139</v>
+      </c>
+      <c r="S25" t="s">
+        <v>144</v>
+      </c>
+      <c r="T25">
+        <v>2034</v>
+      </c>
+      <c r="X25" s="2">
+        <v>0.69072337680391005</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF25">
+        <v>2043</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO25">
+        <v>2033</v>
+      </c>
+      <c r="AP25">
+        <v>2033</v>
+      </c>
+      <c r="AQ25">
+        <v>2077</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>0.72322779682271798</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>1.1765928095117699</v>
+      </c>
+      <c r="AU25" s="2">
+        <v>3.3375443506061302</v>
+      </c>
+      <c r="AW25"/>
+      <c r="AX25"/>
+      <c r="AY25"/>
+      <c r="AZ25"/>
+      <c r="BA25"/>
+      <c r="BB25"/>
+      <c r="BC25"/>
+      <c r="BD25"/>
+      <c r="BE25"/>
+      <c r="BF25"/>
+    </row>
+    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="R26" t="s">
+        <v>138</v>
+      </c>
+      <c r="S26" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF26">
+        <v>2047</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO26">
+        <v>2020</v>
+      </c>
+      <c r="AP26">
+        <v>2035</v>
+      </c>
+      <c r="AS26" s="2">
+        <v>0.38601529090168102</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>1.3950653</v>
+      </c>
+      <c r="AW26"/>
+      <c r="AX26"/>
+      <c r="AY26"/>
+      <c r="AZ26"/>
+      <c r="BA26"/>
+      <c r="BB26"/>
+      <c r="BC26"/>
+      <c r="BD26"/>
+      <c r="BE26"/>
+      <c r="BF26"/>
+    </row>
+    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AE27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF27">
+        <v>2040</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO27">
+        <v>2020</v>
+      </c>
+      <c r="AP27">
+        <v>2070</v>
+      </c>
+      <c r="AS27" s="2">
+        <v>0.72077789999999997</v>
+      </c>
+      <c r="AT27" s="2">
+        <v>2.1390993330213699</v>
+      </c>
+      <c r="AW27"/>
+      <c r="AX27"/>
+      <c r="AY27"/>
+      <c r="AZ27"/>
+      <c r="BA27"/>
+      <c r="BB27"/>
+      <c r="BC27"/>
+      <c r="BD27"/>
+      <c r="BE27"/>
+      <c r="BF27"/>
+    </row>
+    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AE28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO28">
+        <v>2052</v>
+      </c>
+      <c r="AP28">
+        <v>2063</v>
+      </c>
+      <c r="AS28" s="2">
+        <v>1.47873513963486</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>2.21944365083219</v>
+      </c>
+      <c r="AW28"/>
+      <c r="AX28"/>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="BA28"/>
+      <c r="BB28"/>
+      <c r="BC28"/>
+      <c r="BD28"/>
+      <c r="BE28"/>
+      <c r="BF28"/>
+    </row>
+    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AE29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO29">
+        <v>2047</v>
+      </c>
+      <c r="AP29">
+        <v>2044</v>
+      </c>
+      <c r="AS29" s="2">
+        <v>1.3241218433558199</v>
+      </c>
+      <c r="AT29" s="2">
+        <v>1.9836362436988699</v>
+      </c>
+      <c r="AW29"/>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
+      <c r="BC29"/>
+      <c r="BD29"/>
+      <c r="BE29"/>
+      <c r="BF29"/>
+    </row>
+    <row r="30" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AM30" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO30">
+        <v>2031</v>
+      </c>
+      <c r="AP30">
+        <v>2023</v>
+      </c>
+      <c r="AS30" s="2">
+        <v>1.10620723221233</v>
+      </c>
+      <c r="AT30" s="2">
+        <v>0.99704027529113504</v>
+      </c>
+      <c r="AW30"/>
+      <c r="AX30"/>
+      <c r="AY30"/>
+      <c r="AZ30"/>
+      <c r="BA30"/>
+      <c r="BB30"/>
+      <c r="BC30"/>
+      <c r="BD30"/>
+      <c r="BE30"/>
+      <c r="BF30"/>
+    </row>
+    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AM31" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO31">
+        <v>2013</v>
+      </c>
+      <c r="AP31">
+        <v>2020</v>
+      </c>
+      <c r="AS31" s="2">
+        <v>0.40323407208475398</v>
+      </c>
+      <c r="AT31" s="2">
+        <v>0.87309575963903396</v>
+      </c>
+      <c r="AW31"/>
+      <c r="AX31"/>
+      <c r="AY31"/>
+      <c r="AZ31"/>
+      <c r="BA31"/>
+      <c r="BB31"/>
+      <c r="BC31"/>
+      <c r="BD31"/>
+      <c r="BE31"/>
+      <c r="BF31"/>
+    </row>
+    <row r="32" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AM32" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO32">
+        <v>2009</v>
+      </c>
+      <c r="AP32">
+        <v>2041</v>
+      </c>
+      <c r="AS32" s="2">
+        <v>0.177779995953596</v>
+      </c>
+      <c r="AT32" s="2">
+        <v>1.3750644292338701</v>
+      </c>
+      <c r="AW32"/>
+      <c r="AX32"/>
+      <c r="AY32"/>
+      <c r="AZ32"/>
+      <c r="BA32"/>
+      <c r="BB32"/>
+      <c r="BC32"/>
+      <c r="BD32"/>
+      <c r="BE32"/>
+      <c r="BF32"/>
+    </row>
+    <row r="33" spans="18:58" x14ac:dyDescent="0.2">
+      <c r="R33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1"/>
+      <c r="T33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="AM33" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO33">
+        <v>2029</v>
+      </c>
+      <c r="AP33">
+        <v>2030</v>
+      </c>
+      <c r="AS33" s="2">
+        <v>0.96419402225133399</v>
+      </c>
+      <c r="AT33" s="2">
+        <v>0.998950885644035</v>
+      </c>
+      <c r="AW33"/>
+      <c r="AX33"/>
+      <c r="AY33"/>
+      <c r="AZ33"/>
+      <c r="BA33"/>
+      <c r="BB33"/>
+      <c r="BC33"/>
+      <c r="BD33"/>
+      <c r="BE33"/>
+      <c r="BF33"/>
+    </row>
+    <row r="34" spans="18:58" x14ac:dyDescent="0.2">
+      <c r="R34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO34">
+        <v>2019</v>
+      </c>
+      <c r="AP34">
+        <v>2042</v>
+      </c>
+      <c r="AS34" s="2">
+        <v>0.70134988166900303</v>
+      </c>
+      <c r="AT34" s="2">
+        <v>1.92835522339452</v>
+      </c>
+      <c r="AW34"/>
+      <c r="AX34"/>
+      <c r="AY34"/>
+      <c r="AZ34"/>
+      <c r="BA34"/>
+      <c r="BB34"/>
+      <c r="BC34"/>
+      <c r="BD34"/>
+      <c r="BE34"/>
+      <c r="BF34"/>
+    </row>
+    <row r="35" spans="18:58" x14ac:dyDescent="0.2">
+      <c r="R35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S35" t="s">
+        <v>143</v>
+      </c>
+      <c r="T35">
+        <v>2023</v>
+      </c>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="AM35" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO35">
+        <v>2030</v>
+      </c>
+      <c r="AP35">
+        <v>2042</v>
+      </c>
+      <c r="AS35" s="2">
+        <v>1.14807129358736</v>
+      </c>
+      <c r="AT35" s="2">
+        <v>1.9069431740552201</v>
+      </c>
+      <c r="AW35"/>
+      <c r="AX35"/>
+      <c r="AY35"/>
+      <c r="AZ35"/>
+      <c r="BA35"/>
+      <c r="BB35"/>
+      <c r="BC35"/>
+      <c r="BD35"/>
+      <c r="BE35"/>
+      <c r="BF35"/>
+    </row>
+    <row r="36" spans="18:58" x14ac:dyDescent="0.2">
+      <c r="R36" t="s">
+        <v>125</v>
+      </c>
+      <c r="S36" t="s">
+        <v>143</v>
+      </c>
+      <c r="T36">
+        <v>2012</v>
+      </c>
+      <c r="U36">
+        <v>2044</v>
+      </c>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="AM36" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO36">
+        <v>2030</v>
+      </c>
+      <c r="AP36">
+        <v>2035</v>
+      </c>
+      <c r="AS36" s="2">
+        <v>1.1304126238699299</v>
+      </c>
+      <c r="AT36" s="2">
+        <v>1.2029984</v>
+      </c>
+      <c r="AW36"/>
+      <c r="AX36"/>
+      <c r="AY36"/>
+      <c r="AZ36"/>
+      <c r="BA36"/>
+      <c r="BB36"/>
+      <c r="BC36"/>
+      <c r="BD36"/>
+      <c r="BE36"/>
+      <c r="BF36"/>
+    </row>
+    <row r="37" spans="18:58" x14ac:dyDescent="0.2">
+      <c r="R37" t="s">
+        <v>119</v>
+      </c>
+      <c r="S37" t="s">
+        <v>143</v>
+      </c>
+      <c r="T37">
+        <v>2014</v>
+      </c>
+      <c r="U37">
+        <v>2034</v>
+      </c>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="AM37" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO37">
+        <v>2019</v>
+      </c>
+      <c r="AP37">
+        <v>2057</v>
+      </c>
+      <c r="AS37" s="2">
+        <v>0.43056794999999998</v>
+      </c>
+      <c r="AT37" s="2">
+        <v>1.78786858452693</v>
+      </c>
+      <c r="AW37"/>
+      <c r="AX37"/>
+      <c r="AY37"/>
+      <c r="AZ37"/>
+      <c r="BA37"/>
+      <c r="BB37"/>
+      <c r="BC37"/>
+      <c r="BD37"/>
+      <c r="BE37"/>
+      <c r="BF37"/>
+    </row>
+    <row r="38" spans="18:58" x14ac:dyDescent="0.2">
+      <c r="R38" t="s">
+        <v>118</v>
+      </c>
+      <c r="S38" t="s">
+        <v>143</v>
+      </c>
+      <c r="T38">
+        <v>2044</v>
+      </c>
+      <c r="U38">
+        <v>2032</v>
+      </c>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="AM38" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO38">
+        <v>2043</v>
+      </c>
+      <c r="AP38">
+        <v>2055</v>
+      </c>
+      <c r="AS38" s="2">
+        <v>1.39116558498808</v>
+      </c>
+      <c r="AT38" s="2">
+        <v>2.0562198799908602</v>
+      </c>
+      <c r="AW38"/>
+      <c r="AX38"/>
+      <c r="AY38"/>
+      <c r="AZ38"/>
+      <c r="BA38"/>
+      <c r="BB38"/>
+      <c r="BC38"/>
+      <c r="BD38"/>
+      <c r="BE38"/>
+      <c r="BF38"/>
+    </row>
+    <row r="39" spans="18:58" x14ac:dyDescent="0.2">
+      <c r="R39" t="s">
+        <v>120</v>
+      </c>
+      <c r="S39" t="s">
+        <v>143</v>
+      </c>
+      <c r="T39">
+        <v>2011</v>
+      </c>
+      <c r="U39">
+        <v>2047</v>
+      </c>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="AM39" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO39">
+        <v>2040</v>
+      </c>
+      <c r="AS39" s="2">
+        <v>1.4563077935103701</v>
+      </c>
+      <c r="AW39"/>
+      <c r="AX39"/>
+      <c r="AY39"/>
+      <c r="AZ39"/>
+      <c r="BA39"/>
+      <c r="BB39"/>
+      <c r="BC39"/>
+      <c r="BD39"/>
+      <c r="BE39"/>
+      <c r="BF39"/>
+    </row>
+    <row r="40" spans="18:58" x14ac:dyDescent="0.2">
+      <c r="R40" t="s">
+        <v>121</v>
+      </c>
+      <c r="S40" t="s">
+        <v>143</v>
+      </c>
+      <c r="T40">
+        <v>2016</v>
+      </c>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="AM40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW40"/>
+      <c r="AX40"/>
+      <c r="AY40"/>
+      <c r="AZ40"/>
+      <c r="BA40"/>
+      <c r="BB40"/>
+      <c r="BC40"/>
+      <c r="BD40"/>
+      <c r="BE40"/>
+      <c r="BF40"/>
+    </row>
+    <row r="41" spans="18:58" x14ac:dyDescent="0.2">
+      <c r="R41" t="s">
+        <v>123</v>
+      </c>
+      <c r="S41" t="s">
+        <v>143</v>
+      </c>
+      <c r="T41">
+        <v>2085</v>
+      </c>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="AM41" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW41"/>
+      <c r="AX41"/>
+      <c r="AY41"/>
+      <c r="AZ41"/>
+      <c r="BA41"/>
+      <c r="BB41"/>
+      <c r="BC41"/>
+      <c r="BD41"/>
+      <c r="BE41"/>
+      <c r="BF41"/>
+    </row>
+    <row r="42" spans="18:58" x14ac:dyDescent="0.2">
+      <c r="R42" t="s">
+        <v>133</v>
+      </c>
+      <c r="S42" t="s">
+        <v>145</v>
+      </c>
+      <c r="T42">
+        <v>2022</v>
+      </c>
+      <c r="U42">
+        <v>2044</v>
+      </c>
+      <c r="V42"/>
+      <c r="W42"/>
+    </row>
+    <row r="43" spans="18:58" x14ac:dyDescent="0.2">
+      <c r="R43" t="s">
+        <v>132</v>
+      </c>
+      <c r="S43" t="s">
+        <v>145</v>
+      </c>
+      <c r="T43">
+        <v>2012</v>
+      </c>
+      <c r="U43">
+        <v>2035</v>
+      </c>
+      <c r="V43"/>
+      <c r="W43"/>
+    </row>
+    <row r="44" spans="18:58" x14ac:dyDescent="0.2">
+      <c r="R44" t="s">
+        <v>128</v>
+      </c>
+      <c r="S44" t="s">
+        <v>145</v>
+      </c>
+      <c r="T44">
+        <v>2018</v>
+      </c>
+      <c r="U44">
+        <v>2032</v>
+      </c>
+      <c r="V44"/>
+      <c r="W44"/>
+    </row>
+    <row r="45" spans="18:58" x14ac:dyDescent="0.2">
+      <c r="R45" t="s">
+        <v>127</v>
+      </c>
+      <c r="S45" t="s">
+        <v>145</v>
+      </c>
+      <c r="T45">
+        <v>2038</v>
+      </c>
+      <c r="U45">
+        <v>2059</v>
+      </c>
+      <c r="V45"/>
+      <c r="W45"/>
+    </row>
+    <row r="46" spans="18:58" x14ac:dyDescent="0.2">
+      <c r="R46" t="s">
+        <v>129</v>
+      </c>
+      <c r="S46" t="s">
+        <v>145</v>
+      </c>
+      <c r="T46">
+        <v>2014</v>
+      </c>
+      <c r="U46">
+        <v>2031</v>
+      </c>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="AM46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="5"/>
+    </row>
+    <row r="47" spans="18:58" x14ac:dyDescent="0.2">
+      <c r="R47" t="s">
+        <v>131</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="T47">
+        <v>2040</v>
+      </c>
+      <c r="U47">
+        <v>2074</v>
+      </c>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="AM47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="18:58" x14ac:dyDescent="0.2">
+      <c r="R48" t="s">
+        <v>130</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="T48">
+        <v>2042</v>
+      </c>
+      <c r="U48">
+        <v>2068</v>
+      </c>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="AM48"/>
+      <c r="AN48"/>
+      <c r="AO48"/>
+      <c r="AP48"/>
+      <c r="AQ48"/>
+      <c r="AR48"/>
+    </row>
+    <row r="49" spans="18:44" x14ac:dyDescent="0.2">
+      <c r="R49" t="s">
+        <v>141</v>
+      </c>
+      <c r="S49" t="s">
+        <v>144</v>
+      </c>
+      <c r="T49">
+        <v>2020</v>
+      </c>
+      <c r="U49">
+        <v>2037</v>
+      </c>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="AM49"/>
+      <c r="AN49"/>
+      <c r="AO49"/>
+      <c r="AP49"/>
+      <c r="AQ49"/>
+      <c r="AR49"/>
+    </row>
+    <row r="50" spans="18:44" x14ac:dyDescent="0.2">
+      <c r="R50" t="s">
+        <v>140</v>
+      </c>
+      <c r="S50" t="s">
+        <v>144</v>
+      </c>
+      <c r="T50">
+        <v>2011</v>
+      </c>
+      <c r="U50">
+        <v>2029</v>
+      </c>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="AM50" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO50">
+        <v>2042</v>
+      </c>
+      <c r="AP50"/>
+      <c r="AQ50"/>
+      <c r="AR50"/>
+    </row>
+    <row r="51" spans="18:44" x14ac:dyDescent="0.2">
+      <c r="R51" t="s">
+        <v>135</v>
+      </c>
+      <c r="S51" t="s">
+        <v>144</v>
+      </c>
+      <c r="T51">
+        <v>2014</v>
+      </c>
+      <c r="U51">
+        <v>2027</v>
+      </c>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="AM51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO51">
+        <v>2014</v>
+      </c>
+      <c r="AP51">
+        <v>2027</v>
+      </c>
+      <c r="AQ51"/>
+      <c r="AR51"/>
+    </row>
+    <row r="52" spans="18:44" x14ac:dyDescent="0.2">
+      <c r="R52" t="s">
+        <v>134</v>
+      </c>
+      <c r="S52" t="s">
+        <v>144</v>
+      </c>
+      <c r="T52">
+        <v>2031</v>
+      </c>
+      <c r="U52">
+        <v>2046</v>
+      </c>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="AM52" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO52">
+        <v>2010</v>
+      </c>
+      <c r="AP52">
+        <v>2021</v>
+      </c>
+      <c r="AQ52"/>
+      <c r="AR52"/>
+    </row>
+    <row r="53" spans="18:44" x14ac:dyDescent="0.2">
+      <c r="R53" t="s">
+        <v>136</v>
+      </c>
+      <c r="S53" t="s">
+        <v>144</v>
+      </c>
+      <c r="T53">
+        <v>2023</v>
+      </c>
+      <c r="U53">
+        <v>2035</v>
+      </c>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="AM53" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO53">
+        <v>2028</v>
+      </c>
+      <c r="AP53">
+        <v>2060</v>
+      </c>
+      <c r="AQ53"/>
+      <c r="AR53"/>
+    </row>
+    <row r="54" spans="18:44" x14ac:dyDescent="0.2">
+      <c r="R54" t="s">
+        <v>137</v>
+      </c>
+      <c r="S54" t="s">
+        <v>144</v>
+      </c>
+      <c r="T54">
+        <v>2011</v>
+      </c>
+      <c r="U54">
+        <v>2027</v>
+      </c>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="AM54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO54">
+        <v>2018</v>
+      </c>
+      <c r="AP54">
+        <v>2031</v>
+      </c>
+      <c r="AQ54"/>
+      <c r="AR54"/>
+    </row>
+    <row r="55" spans="18:44" x14ac:dyDescent="0.2">
+      <c r="R55" t="s">
+        <v>139</v>
+      </c>
+      <c r="S55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T55">
+        <v>2033</v>
+      </c>
+      <c r="U55">
+        <v>2050</v>
+      </c>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="AM55" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO55">
+        <v>2020</v>
+      </c>
+      <c r="AP55">
+        <v>2039</v>
+      </c>
+      <c r="AQ55"/>
+      <c r="AR55"/>
+    </row>
+    <row r="56" spans="18:44" x14ac:dyDescent="0.2">
+      <c r="R56" t="s">
+        <v>138</v>
+      </c>
+      <c r="S56" t="s">
+        <v>144</v>
+      </c>
+      <c r="T56">
+        <v>2034</v>
+      </c>
+      <c r="U56">
+        <v>2048</v>
+      </c>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="AM56" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO56"/>
+      <c r="AP56"/>
+      <c r="AQ56"/>
+      <c r="AR56"/>
+    </row>
+    <row r="57" spans="18:44" x14ac:dyDescent="0.2">
+      <c r="AM57" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO57"/>
+      <c r="AP57"/>
+      <c r="AQ57"/>
+      <c r="AR57"/>
+    </row>
+    <row r="58" spans="18:44" x14ac:dyDescent="0.2">
+      <c r="AM58" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO58">
+        <v>2036</v>
+      </c>
+      <c r="AP58">
+        <v>2058</v>
+      </c>
+      <c r="AQ58"/>
+      <c r="AR58"/>
+    </row>
+    <row r="59" spans="18:44" x14ac:dyDescent="0.2">
+      <c r="AM59" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO59">
+        <v>2014</v>
+      </c>
+      <c r="AP59">
+        <v>2025</v>
+      </c>
+      <c r="AQ59"/>
+      <c r="AR59"/>
+    </row>
+    <row r="60" spans="18:44" x14ac:dyDescent="0.2">
+      <c r="AM60" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO60">
+        <v>2010</v>
+      </c>
+      <c r="AP60">
+        <v>2021</v>
+      </c>
+      <c r="AQ60"/>
+      <c r="AR60"/>
+    </row>
+    <row r="61" spans="18:44" x14ac:dyDescent="0.2">
+      <c r="AM61" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO61">
+        <v>2031</v>
+      </c>
+      <c r="AP61">
+        <v>2049</v>
+      </c>
+      <c r="AQ61"/>
+      <c r="AR61"/>
+    </row>
+    <row r="62" spans="18:44" x14ac:dyDescent="0.2">
+      <c r="AM62" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO62">
+        <v>2020</v>
+      </c>
+      <c r="AP62">
+        <v>2034</v>
+      </c>
+      <c r="AQ62"/>
+      <c r="AR62"/>
+    </row>
+    <row r="63" spans="18:44" x14ac:dyDescent="0.2">
+      <c r="AM63" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO63">
+        <v>2032</v>
+      </c>
+      <c r="AP63">
+        <v>2050</v>
+      </c>
+      <c r="AQ63"/>
+      <c r="AR63"/>
+    </row>
+    <row r="64" spans="18:44" x14ac:dyDescent="0.2">
+      <c r="AM64" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO64">
+        <v>2032</v>
+      </c>
+      <c r="AP64">
+        <v>2050</v>
+      </c>
+      <c r="AQ64"/>
+      <c r="AR64"/>
+    </row>
+    <row r="65" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM65" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO65">
+        <v>2019</v>
+      </c>
+      <c r="AP65">
+        <v>2034</v>
+      </c>
+      <c r="AQ65"/>
+      <c r="AR65"/>
+    </row>
+    <row r="66" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM66" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO66">
+        <v>2056</v>
+      </c>
+      <c r="AP66">
+        <v>2086</v>
+      </c>
+      <c r="AQ66"/>
+      <c r="AR66"/>
+    </row>
+    <row r="67" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM67" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN67" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO67">
+        <v>2047</v>
+      </c>
+      <c r="AP67">
+        <v>2079</v>
+      </c>
+      <c r="AQ67"/>
+      <c r="AR67"/>
+    </row>
+    <row r="68" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM68" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO68">
+        <v>2033</v>
+      </c>
+      <c r="AP68">
+        <v>2047</v>
+      </c>
+      <c r="AQ68"/>
+      <c r="AR68"/>
+    </row>
+    <row r="69" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM69" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO69">
+        <v>2014</v>
+      </c>
+      <c r="AP69">
+        <v>2024</v>
+      </c>
+      <c r="AQ69"/>
+      <c r="AR69"/>
+    </row>
+    <row r="70" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM70" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO70">
+        <v>2009</v>
+      </c>
+      <c r="AP70">
+        <v>2020</v>
+      </c>
+      <c r="AQ70"/>
+      <c r="AR70"/>
+    </row>
+    <row r="71" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM71" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO71">
+        <v>2033</v>
+      </c>
+      <c r="AP71">
+        <v>2046</v>
+      </c>
+      <c r="AQ71"/>
+      <c r="AR71"/>
+    </row>
+    <row r="72" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM72" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO72">
+        <v>2020</v>
+      </c>
+      <c r="AP72">
+        <v>2033</v>
+      </c>
+      <c r="AQ72"/>
+      <c r="AR72"/>
+    </row>
+    <row r="73" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM73" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO73">
+        <v>2020</v>
+      </c>
+      <c r="AP73">
+        <v>2035</v>
+      </c>
+      <c r="AQ73"/>
+      <c r="AR73"/>
+    </row>
+    <row r="74" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM74" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO74">
+        <v>2052</v>
+      </c>
+      <c r="AP74">
+        <v>2070</v>
+      </c>
+      <c r="AQ74"/>
+      <c r="AR74"/>
+    </row>
+    <row r="75" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM75" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO75">
+        <v>2047</v>
+      </c>
+      <c r="AP75">
+        <v>2063</v>
+      </c>
+      <c r="AQ75"/>
+      <c r="AR75"/>
+    </row>
+    <row r="76" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM76" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO76">
+        <v>2031</v>
+      </c>
+      <c r="AP76">
+        <v>2044</v>
+      </c>
+      <c r="AQ76"/>
+      <c r="AR76"/>
+    </row>
+    <row r="77" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM77" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO77">
+        <v>2013</v>
+      </c>
+      <c r="AP77">
+        <v>2023</v>
+      </c>
+      <c r="AQ77"/>
+      <c r="AR77"/>
+    </row>
+    <row r="78" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM78" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN78" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO78">
+        <v>2009</v>
+      </c>
+      <c r="AP78">
+        <v>2020</v>
+      </c>
+      <c r="AQ78"/>
+      <c r="AR78"/>
+    </row>
+    <row r="79" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM79" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN79" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO79">
+        <v>2029</v>
+      </c>
+      <c r="AP79">
+        <v>2041</v>
+      </c>
+      <c r="AQ79"/>
+      <c r="AR79"/>
+    </row>
+    <row r="80" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM80" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN80" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO80">
+        <v>2019</v>
+      </c>
+      <c r="AP80">
+        <v>2030</v>
+      </c>
+      <c r="AQ80"/>
+      <c r="AR80"/>
+    </row>
+    <row r="81" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM81" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN81" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO81">
+        <v>2030</v>
+      </c>
+      <c r="AP81">
+        <v>2042</v>
+      </c>
+      <c r="AQ81"/>
+      <c r="AR81"/>
+    </row>
+    <row r="82" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM82" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN82" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO82">
+        <v>2030</v>
+      </c>
+      <c r="AP82">
+        <v>2042</v>
+      </c>
+      <c r="AQ82"/>
+      <c r="AR82"/>
+    </row>
+    <row r="83" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM83" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN83" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO83">
+        <v>2019</v>
+      </c>
+      <c r="AP83">
+        <v>2035</v>
+      </c>
+      <c r="AQ83"/>
+      <c r="AR83"/>
+    </row>
+    <row r="84" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM84" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN84" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO84">
+        <v>2043</v>
+      </c>
+      <c r="AP84">
+        <v>2057</v>
+      </c>
+      <c r="AQ84"/>
+      <c r="AR84"/>
+    </row>
+    <row r="85" spans="39:44" x14ac:dyDescent="0.2">
+      <c r="AM85" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN85" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO85">
+        <v>2040</v>
+      </c>
+      <c r="AP85">
+        <v>2055</v>
+      </c>
+      <c r="AQ85"/>
+      <c r="AR85"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I20">
+    <sortCondition ref="A4:A20"/>
+  </sortState>
+  <mergeCells count="13">
+    <mergeCell ref="AO46:AR46"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="BA2:BD2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>